--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value511.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value511.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.056967137691888</v>
+        <v>1.23199474811554</v>
       </c>
       <c r="B1">
-        <v>1.828077434322456</v>
+        <v>2.496006488800049</v>
       </c>
       <c r="C1">
-        <v>2.718727821922189</v>
+        <v>4.196475028991699</v>
       </c>
       <c r="D1">
-        <v>2.602790236367675</v>
+        <v>2.721020936965942</v>
       </c>
       <c r="E1">
-        <v>0.8726998904707225</v>
+        <v>1.08258068561554</v>
       </c>
     </row>
   </sheetData>
